--- a/period_data/period_stock_list.xlsx
+++ b/period_data/period_stock_list.xlsx
@@ -534,7 +534,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>VCC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCE</t>
+          <t>HBS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BMP</t>
+          <t>C4G</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVD</t>
+          <t>POM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIG</t>
+          <t>HRT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAB</t>
+          <t>BIC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1407,7 +1407,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CTG</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>OCB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HPX</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>PVR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>ODE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2086,7 +2086,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>VAB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2183,7 +2183,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>ART</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GDT</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BVH</t>
+          <t>DDV</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SJE</t>
+          <t>AGG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2765,7 +2765,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFS</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2862,7 +2862,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SSH</t>
+          <t>CEN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2959,7 +2959,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HKB</t>
+          <t>FTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3056,7 +3056,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>VEC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3347,7 +3347,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DBC</t>
+          <t>PVL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SGB</t>
+          <t>IVS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>KSQ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>SIP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3735,7 +3735,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>FCM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GVR</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3929,7 +3929,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VID</t>
+          <t>LIG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4026,7 +4026,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4123,7 +4123,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIC</t>
+          <t>ACG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PSP</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4317,7 +4317,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DPR</t>
+          <t>PMB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4511,7 +4511,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CVN</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4608,7 +4608,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LDP</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4705,7 +4705,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4802,7 +4802,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>HTP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4899,7 +4899,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DBD</t>
+          <t>DGT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TCW</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5093,7 +5093,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DCL</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5190,7 +5190,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5287,7 +5287,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5384,7 +5384,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5481,7 +5481,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5675,7 +5675,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5772,7 +5772,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5869,7 +5869,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VTZ</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5966,7 +5966,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IDC</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6063,7 +6063,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HDA</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NSH</t>
+          <t>GHC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6257,7 +6257,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6451,7 +6451,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KMR</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6548,7 +6548,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>SHN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6645,7 +6645,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GSP</t>
+          <t>VE9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6742,7 +6742,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6839,7 +6839,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>HPG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BAB</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7033,7 +7033,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>FIR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7130,7 +7130,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VCC</t>
+          <t>SGT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7227,7 +7227,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BSI</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7324,7 +7324,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>TTZ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7421,7 +7421,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>PAS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AVF</t>
+          <t>CST</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7615,7 +7615,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>QBS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7712,7 +7712,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>IDC</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7809,7 +7809,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DVP</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8003,7 +8003,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>BVB</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8100,7 +8100,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8197,7 +8197,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8294,7 +8294,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>NCG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8391,7 +8391,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OCH</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HVX</t>
+          <t>SD6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8585,7 +8585,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DXG</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8682,7 +8682,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DTD</t>
+          <t>VLG</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8779,7 +8779,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>GTT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8876,7 +8876,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PGI</t>
+          <t>GDT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8973,7 +8973,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9070,7 +9070,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FPT</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9167,7 +9167,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>PGS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9264,7 +9264,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CST</t>
+          <t>SJE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9361,7 +9361,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>SD3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9555,7 +9555,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9652,7 +9652,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9749,7 +9749,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9943,7 +9943,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>DBD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -10040,7 +10040,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>SCS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10137,7 +10137,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DIG</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>HAH</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10331,7 +10331,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10428,7 +10428,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BVB</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10525,7 +10525,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CTI</t>
+          <t>NAG</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10622,7 +10622,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PVR</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10719,7 +10719,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>GMA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10816,7 +10816,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10913,7 +10913,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C47</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -11010,7 +11010,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>VTZ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -11107,7 +11107,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -11204,7 +11204,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>HLD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -11301,7 +11301,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>ITD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -11398,7 +11398,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DZM</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -11495,7 +11495,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BWE</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -11592,7 +11592,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>EVG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -11689,7 +11689,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>ANV</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11786,7 +11786,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FLC</t>
+          <t>KDM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11883,7 +11883,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11980,7 +11980,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SHN</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -12077,7 +12077,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -12174,7 +12174,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HDG</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12271,7 +12271,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -12368,7 +12368,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TTZ</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -12465,7 +12465,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>VID</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -12562,7 +12562,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DHA</t>
+          <t>AFX</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -12659,7 +12659,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -12756,7 +12756,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -12853,7 +12853,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PGN</t>
+          <t>DBC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -12950,7 +12950,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -13047,7 +13047,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CTS</t>
+          <t>VFG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -13144,7 +13144,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>DHG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -13241,7 +13241,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -13338,7 +13338,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DQC</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -13435,7 +13435,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -13532,7 +13532,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CII</t>
+          <t>UDJ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -13629,7 +13629,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NCT</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -13726,7 +13726,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>CII</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -13823,7 +13823,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ILB</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -13920,7 +13920,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -14017,7 +14017,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -14114,7 +14114,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>SRT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -14211,7 +14211,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HIO</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -14308,7 +14308,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OCH</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -14405,7 +14405,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>VNB</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -14502,7 +14502,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HAC</t>
+          <t>MSB</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -14599,7 +14599,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>AMV</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -14696,7 +14696,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DAH</t>
+          <t>HQC</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -14793,7 +14793,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>HCM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -14890,7 +14890,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -14987,7 +14987,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>KSF</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -15084,7 +15084,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -15181,7 +15181,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PGS</t>
+          <t>BWE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -15278,7 +15278,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -15375,7 +15375,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DS3</t>
+          <t>DXS</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -15472,7 +15472,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IVS</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -15569,7 +15569,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>OCB</t>
+          <t>HVX</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -15666,7 +15666,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ELC</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -15763,7 +15763,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -15860,7 +15860,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -15957,7 +15957,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>QTP</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -16054,7 +16054,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CTR</t>
+          <t>C32</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -16151,7 +16151,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>G36</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -16248,7 +16248,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -16345,7 +16345,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PDV</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -16442,7 +16442,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>NDX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -16539,7 +16539,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -16636,7 +16636,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -16733,7 +16733,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>NBB</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -16830,7 +16830,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>CTG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -16927,7 +16927,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>SSN</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -17024,7 +17024,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BIC</t>
+          <t>HAP</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -17121,7 +17121,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CGV</t>
+          <t>SGI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -17218,7 +17218,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>EVF</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -17315,7 +17315,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -17412,7 +17412,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FIT</t>
+          <t>PVV</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -17509,7 +17509,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>DTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -17606,7 +17606,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GTT</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -17703,7 +17703,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PVO</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -17800,7 +17800,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -17897,7 +17897,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>HNM</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -17994,7 +17994,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -18091,7 +18091,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TA9</t>
+          <t>HMR</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -18188,7 +18188,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>VNH</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -18285,7 +18285,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HPG</t>
+          <t>CVN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -18382,7 +18382,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>SBV</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -18479,7 +18479,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -18576,7 +18576,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -18673,7 +18673,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>HHP</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -18770,7 +18770,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DGW</t>
+          <t>DL1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -18867,7 +18867,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>VNL</t>
+          <t>KMR</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -18964,7 +18964,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DVG</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -19061,7 +19061,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>DAH</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -19158,7 +19158,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>APC</t>
+          <t>KHP</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -19255,7 +19255,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>LMH</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -19352,7 +19352,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ANV</t>
+          <t>BTP</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -19449,7 +19449,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -19542,7 +19542,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CEN</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -19635,7 +19635,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>HDC</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -19728,7 +19728,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>MTA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -19821,7 +19821,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PHC</t>
+          <t>VC7</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -19914,7 +19914,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -20007,7 +20007,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -20100,7 +20100,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FCM</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -20193,7 +20193,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -20286,7 +20286,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>EVG</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -20472,7 +20472,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -20565,7 +20565,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -20658,7 +20658,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TL4</t>
+          <t>HAG</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>PBP</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -20844,7 +20844,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>HHS</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -20937,7 +20937,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -21030,7 +21030,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AAT</t>
+          <t>TID</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -21123,7 +21123,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -21216,7 +21216,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -21309,7 +21309,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>DPM</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -21402,7 +21402,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>CTI</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -21495,7 +21495,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>PGB</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -21588,7 +21588,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HCD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -21681,7 +21681,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>HAX</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -21774,7 +21774,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>UDJ</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -21867,7 +21867,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>VE9</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -21960,7 +21960,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -22053,7 +22053,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>GSP</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -22146,7 +22146,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SHA</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -22239,7 +22239,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -22332,7 +22332,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SD5</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -22425,7 +22425,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>DSC</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -22518,7 +22518,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>KHP</t>
+          <t>CTD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -22611,7 +22611,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -22704,7 +22704,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -22797,7 +22797,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DDN</t>
+          <t>HSV</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -22890,7 +22890,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>TV3</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -22983,7 +22983,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>SDD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -23076,7 +23076,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -23169,7 +23169,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -23262,7 +23262,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>EVS</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -23355,7 +23355,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DL1</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -23448,7 +23448,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>HAI</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -23541,7 +23541,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>ITS</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -23634,7 +23634,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -23727,7 +23727,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>KKC</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -23820,7 +23820,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>VPD</t>
+          <t>CNG</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -23913,7 +23913,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SCJ</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -24006,7 +24006,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SVT</t>
+          <t>DIG</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -24099,7 +24099,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BII</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -24188,7 +24188,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HSV</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>EIB</t>
+          <t>BMC</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -24366,7 +24366,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CMX</t>
+          <t>VFS</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -24455,7 +24455,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>XMC</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -24544,7 +24544,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>FPT</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -24633,7 +24633,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>PHC</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -24722,7 +24722,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>DPG</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -24811,7 +24811,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -24900,7 +24900,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>PVO</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -24989,7 +24989,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -25078,7 +25078,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BAF</t>
+          <t>SCJ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -25167,7 +25167,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>DXV</t>
+          <t>VC1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -25256,7 +25256,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -25345,7 +25345,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -25434,7 +25434,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -25523,7 +25523,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -25612,7 +25612,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -25701,7 +25701,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>DHG</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -25790,7 +25790,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>VLG</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -25879,7 +25879,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>SVT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -25968,7 +25968,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>PSP</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -26057,7 +26057,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>SJD</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -26146,7 +26146,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -26235,7 +26235,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>HAR</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -26324,7 +26324,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -26413,7 +26413,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>KPF</t>
+          <t>HDA</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -26498,7 +26498,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>KGM</t>
+          <t>PIV</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -26583,7 +26583,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -26668,7 +26668,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GEG</t>
+          <t>LSS</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -26753,7 +26753,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>DLG</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -26838,7 +26838,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SVD</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -26923,7 +26923,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>EIB</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -27008,7 +27008,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>GKM</t>
+          <t>VNS</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -27093,7 +27093,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -27178,7 +27178,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>NHA</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -27263,7 +27263,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SD9</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -27348,7 +27348,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -27433,7 +27433,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HAP</t>
+          <t>DXP</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -27518,7 +27518,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>HUB</t>
+          <t>HBC</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -27603,7 +27603,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -27688,7 +27688,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -27773,7 +27773,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SD6</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -27858,7 +27858,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DDV</t>
+          <t>TEG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -27943,7 +27943,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MTA</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -28028,7 +28028,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AGG</t>
+          <t>SHA</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -28113,7 +28113,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>PPI</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -28198,7 +28198,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TKG</t>
+          <t>HKB</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -28283,7 +28283,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HID</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -28368,7 +28368,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MLS</t>
+          <t>KLB</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -28453,7 +28453,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>MSB</t>
+          <t>PGI</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -28538,7 +28538,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -28623,7 +28623,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BVG</t>
+          <t>KKC</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -28708,7 +28708,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>VSE</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -28793,7 +28793,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>ADG</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -28878,7 +28878,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AAH</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PSW</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -29048,7 +29048,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -29133,7 +29133,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PDB</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -29218,7 +29218,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>SGB</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -29299,7 +29299,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>IPA</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -29380,7 +29380,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -29461,7 +29461,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>HLD</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -29542,7 +29542,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -29704,7 +29704,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>CTF</t>
+          <t>VNL</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -29785,7 +29785,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -29862,7 +29862,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -29939,7 +29939,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -30016,7 +30016,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -30093,7 +30093,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DHM</t>
+          <t>CKG</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -30170,7 +30170,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>CGV</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -30247,7 +30247,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>GVR</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -30324,7 +30324,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -30401,7 +30401,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>DHA</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -30478,7 +30478,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -30555,7 +30555,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>AAV</t>
+          <t>NHP</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -30632,7 +30632,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PGB</t>
+          <t>KVC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -30709,7 +30709,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HD6</t>
+          <t>HAC</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -30786,7 +30786,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -30863,7 +30863,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SMC</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -30940,7 +30940,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>SD5</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -31017,7 +31017,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>FID</t>
+          <t>MFS</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -31094,7 +31094,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -31171,7 +31171,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VBB</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -31248,7 +31248,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>DTI</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -31325,7 +31325,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>C4G</t>
+          <t>VTK</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -31402,7 +31402,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SDT</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -31479,7 +31479,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -31556,7 +31556,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -31633,7 +31633,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -31710,7 +31710,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>HCD</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -31787,7 +31787,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>CTS</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -31864,7 +31864,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>HDC</t>
+          <t>TA9</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -31941,7 +31941,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>SSH</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -32018,7 +32018,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>HBS</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -32095,7 +32095,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>PBC</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -32172,7 +32172,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>CMT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -32249,7 +32249,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SDD</t>
+          <t>MVC</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -32322,7 +32322,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>SVD</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CTD</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -32468,7 +32468,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>VNH</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -32541,7 +32541,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>DQC</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -32614,7 +32614,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -32687,7 +32687,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>VC7</t>
+          <t>G36</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -32760,7 +32760,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TIS</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -32833,7 +32833,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>DPM</t>
+          <t>C69</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -32906,7 +32906,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>POM</t>
+          <t>FIT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -32979,7 +32979,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>PVM</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -33052,7 +33052,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PVM</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>HVG</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -33186,7 +33186,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>VLB</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -33251,7 +33251,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -33316,7 +33316,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>UDC</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -33381,7 +33381,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>KHG</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -33446,7 +33446,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -33511,7 +33511,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -33576,7 +33576,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>VC1</t>
+          <t>LCM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -33641,7 +33641,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>BAF</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -33706,7 +33706,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>PV2</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -33771,7 +33771,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -33836,7 +33836,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>KSQ</t>
+          <t>BII</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -33897,7 +33897,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>DZM</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -33958,7 +33958,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>HIO</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -34019,7 +34019,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MHC</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -34080,7 +34080,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -34141,7 +34141,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>KVC</t>
+          <t>BDT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -34202,7 +34202,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -34263,7 +34263,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>NAB</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -34324,7 +34324,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -34385,7 +34385,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ITS</t>
+          <t>FLC</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -34446,7 +34446,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>C32</t>
+          <t>DPR</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>DGT</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -34568,7 +34568,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BVS</t>
+          <t>VLB</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -34629,7 +34629,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -34690,7 +34690,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HBC</t>
+          <t>DNM</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -34751,7 +34751,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UDC</t>
+          <t>DDG</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -34812,7 +34812,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>HHG</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -34873,7 +34873,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>EIN</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -34934,7 +34934,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>TCW</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -34995,7 +34995,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PTL</t>
+          <t>NNC</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -35056,7 +35056,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -35117,7 +35117,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>GMA</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -35178,7 +35178,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -35239,7 +35239,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -35300,7 +35300,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>CTF</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -35361,7 +35361,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>DGW</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -35422,7 +35422,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>NAG</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -35479,7 +35479,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>AFX</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -35532,7 +35532,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>HHV</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -35585,7 +35585,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>LCM</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -35634,7 +35634,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>D2D</t>
+          <t>HID</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -35683,7 +35683,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>THT</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -35732,7 +35732,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -35781,7 +35781,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -35830,7 +35830,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -35879,7 +35879,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>TVD</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -35928,7 +35928,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>HAH</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -35977,7 +35977,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>NED</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -36026,7 +36026,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -36075,7 +36075,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>GEX</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MVC</t>
+          <t>HD6</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -36173,7 +36173,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>PIV</t>
+          <t>CMX</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -36218,7 +36218,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PMB</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -36263,7 +36263,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>PGC</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -36308,7 +36308,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>PXI</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -36353,7 +36353,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -36398,7 +36398,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>VNB</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -36443,7 +36443,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>PVG</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -36488,7 +36488,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>VC9</t>
+          <t>PXT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -36533,7 +36533,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>SBB</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -36578,7 +36578,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ILA</t>
+          <t>PDB</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -36623,7 +36623,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -36668,7 +36668,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>HU4</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -36709,7 +36709,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -36750,7 +36750,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>BVH</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -36791,7 +36791,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>HHG</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -36832,7 +36832,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -36873,7 +36873,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="B425" t="inlineStr"/>
@@ -36914,7 +36914,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>HQC</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -36951,7 +36951,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>GMH</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -36988,7 +36988,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -37025,7 +37025,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>DGC</t>
+          <t>THT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -37062,7 +37062,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>KSD</t>
         </is>
       </c>
       <c r="B430" t="inlineStr"/>
@@ -37099,7 +37099,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -37136,7 +37136,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -37173,7 +37173,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>TCO</t>
+          <t>TIS</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -37210,7 +37210,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -37247,7 +37247,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>TKG</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -37284,7 +37284,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -37321,7 +37321,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>GMH</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -37358,7 +37358,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -37395,7 +37395,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>SDT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -37432,7 +37432,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="B440" t="inlineStr"/>
@@ -37469,7 +37469,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>APG</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -37506,7 +37506,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>DRH</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B442" t="inlineStr"/>
@@ -37543,7 +37543,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GEG</t>
         </is>
       </c>
       <c r="B443" t="inlineStr"/>
@@ -37580,7 +37580,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -37617,7 +37617,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -37654,7 +37654,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -37691,7 +37691,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>AVF</t>
         </is>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ST8</t>
+          <t>DVM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -37757,7 +37757,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -37790,7 +37790,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>HAG</t>
+          <t>KGM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -37823,7 +37823,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SAV</t>
+          <t>BCE</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -37856,7 +37856,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -37889,7 +37889,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>DS3</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -37922,7 +37922,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>BMP</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -37955,7 +37955,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -37988,7 +37988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SBV</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -38021,7 +38021,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>PGV</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -38054,7 +38054,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>VFS</t>
+          <t>ABS</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -38087,7 +38087,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>NHP</t>
+          <t>PSW</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -38120,7 +38120,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SRT</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -38153,7 +38153,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SJD</t>
+          <t>MCH</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -38186,7 +38186,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>DMC</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -38219,7 +38219,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -38252,7 +38252,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>QBS</t>
+          <t>CIG</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -38285,7 +38285,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -38318,7 +38318,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>PVL</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -38351,7 +38351,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>DPS</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -38384,7 +38384,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>HHV</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -38417,7 +38417,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>LSS</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -38450,7 +38450,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -38483,7 +38483,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -38516,7 +38516,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>PDV</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -38549,7 +38549,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -38582,7 +38582,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -38615,7 +38615,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>NED</t>
+          <t>MHC</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -38648,7 +38648,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -38681,7 +38681,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>KDM</t>
+          <t>ILB</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -38714,7 +38714,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>QNC</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -38747,7 +38747,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>DGC</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -38780,7 +38780,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ADG</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -38813,7 +38813,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>AAH</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -38846,7 +38846,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>VAB</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -38879,7 +38879,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="B483" t="inlineStr"/>
@@ -38912,7 +38912,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>PV2</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -38945,7 +38945,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>DPG</t>
+          <t>TCO</t>
         </is>
       </c>
       <c r="B485" t="inlineStr"/>
@@ -38978,7 +38978,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -39011,7 +39011,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BMC</t>
+          <t>PFL</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -39044,7 +39044,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CSI</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -39077,7 +39077,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TCI</t>
+          <t>PTL</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -39110,7 +39110,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>VSE</t>
+          <t>FID</t>
         </is>
       </c>
       <c r="B490" t="inlineStr"/>
@@ -39143,7 +39143,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>NSH</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -39176,7 +39176,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>TDT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr"/>
@@ -39209,7 +39209,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>KHG</t>
         </is>
       </c>
       <c r="B493" t="inlineStr"/>
@@ -39242,7 +39242,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>PXT</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -39275,7 +39275,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>EVS</t>
         </is>
       </c>
       <c r="B495" t="inlineStr"/>
@@ -39308,7 +39308,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>PGT</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -39341,7 +39341,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -39374,7 +39374,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>QTP</t>
         </is>
       </c>
       <c r="B498" t="inlineStr"/>
@@ -39407,7 +39407,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>LMH</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -39440,7 +39440,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>SAV</t>
         </is>
       </c>
       <c r="B500" t="inlineStr"/>
@@ -39473,7 +39473,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>DXP</t>
+          <t>PGT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -39506,7 +39506,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B502" t="inlineStr"/>
@@ -39539,7 +39539,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>DHC</t>
+          <t>DXG</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -39605,7 +39605,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>AAV</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -39638,7 +39638,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>DAG</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -39671,7 +39671,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>DHM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr"/>
@@ -39704,7 +39704,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SGT</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -39737,7 +39737,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -39770,7 +39770,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr"/>
@@ -39803,7 +39803,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -39836,7 +39836,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>PBP</t>
+          <t>VC2</t>
         </is>
       </c>
       <c r="B512" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>PXI</t>
         </is>
       </c>
       <c r="B513" t="inlineStr"/>
@@ -39898,7 +39898,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORS</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -39927,7 +39927,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BTP</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr"/>
@@ -39956,7 +39956,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SSN</t>
+          <t>ILA</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -39985,7 +39985,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>HSG</t>
+          <t>LGL</t>
         </is>
       </c>
       <c r="B517" t="inlineStr"/>
@@ -40014,7 +40014,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ITD</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="B518" t="inlineStr"/>
@@ -40043,7 +40043,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>CTP</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -40072,7 +40072,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>DVM</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -40101,7 +40101,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>DVP</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -40130,7 +40130,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -40159,7 +40159,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>PFL</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -40188,7 +40188,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>PVP</t>
+          <t>APC</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -40217,7 +40217,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B525" t="inlineStr"/>
@@ -40246,7 +40246,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>KSD</t>
+          <t>LDP</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -40275,7 +40275,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="B527" t="inlineStr"/>
@@ -40304,7 +40304,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="B528" t="inlineStr"/>
@@ -40333,7 +40333,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -40362,7 +40362,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="B530" t="inlineStr"/>
@@ -40387,7 +40387,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ADS</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -40412,7 +40412,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>C69</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -40437,7 +40437,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>HVG</t>
+          <t>ACV</t>
         </is>
       </c>
       <c r="B533" t="inlineStr"/>
@@ -40462,7 +40462,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>DLG</t>
+          <t>BIG</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -40487,7 +40487,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>BCA</t>
         </is>
       </c>
       <c r="B535" t="inlineStr"/>
@@ -40512,7 +40512,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -40537,7 +40537,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -40562,7 +40562,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>ITQ</t>
         </is>
       </c>
       <c r="B538" t="inlineStr"/>
@@ -40587,7 +40587,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>HUB</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -40612,7 +40612,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>DPS</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="B540" t="inlineStr"/>
@@ -40637,7 +40637,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>TID</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -40662,7 +40662,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>DHC</t>
         </is>
       </c>
       <c r="B542" t="inlineStr"/>
@@ -40687,7 +40687,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>CKG</t>
+          <t>BVS</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -40737,7 +40737,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>GKM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr"/>
@@ -40762,7 +40762,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>VC9</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -40787,7 +40787,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>NDT</t>
+          <t>BVG</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -40812,7 +40812,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>DHT</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
@@ -40837,7 +40837,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>DMC</t>
+          <t>AAT</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -40862,7 +40862,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>VEC</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B550" t="inlineStr"/>
@@ -40887,7 +40887,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>NCG</t>
+          <t>TL4</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -40912,7 +40912,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="B552" t="inlineStr"/>
@@ -40937,7 +40937,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>BFC</t>
         </is>
       </c>
       <c r="B553" t="inlineStr"/>
@@ -40962,7 +40962,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -40987,7 +40987,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>DAG</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="B555" t="inlineStr"/>
@@ -41012,7 +41012,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>PAS</t>
+          <t>HU4</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -41037,7 +41037,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>D2D</t>
         </is>
       </c>
       <c r="B557" t="inlineStr"/>
@@ -41062,7 +41062,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -41087,7 +41087,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>DCS</t>
+          <t>ST8</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -41112,7 +41112,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="B560" t="inlineStr"/>
@@ -41137,7 +41137,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>HSL</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -41162,7 +41162,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>CTR</t>
         </is>
       </c>
       <c r="B562" t="inlineStr"/>
@@ -41187,7 +41187,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B563" t="inlineStr"/>
@@ -41212,7 +41212,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>BSI</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -41237,7 +41237,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>PBC</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="B565" t="inlineStr"/>
@@ -41262,7 +41262,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -41287,7 +41287,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>HPX</t>
         </is>
       </c>
       <c r="B567" t="inlineStr"/>
@@ -41312,7 +41312,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="B568" t="inlineStr"/>
@@ -41337,7 +41337,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>DVG</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -41387,7 +41387,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>ORS</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -41412,7 +41412,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>AMV</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr"/>
@@ -41437,7 +41437,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -41462,7 +41462,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -41487,7 +41487,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ODE</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -41512,7 +41512,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -41537,7 +41537,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>DXS</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="B577" t="inlineStr"/>
@@ -41562,7 +41562,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -41587,7 +41587,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>SD9</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -41612,7 +41612,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -41637,7 +41637,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>HTM</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B582" t="inlineStr"/>
@@ -41687,7 +41687,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="B583" t="inlineStr"/>
@@ -41712,7 +41712,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>HAR</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -41737,7 +41737,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>PSI</t>
         </is>
       </c>
       <c r="B585" t="inlineStr"/>
@@ -41762,7 +41762,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -41787,7 +41787,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -41812,7 +41812,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="B588" t="inlineStr"/>
@@ -41837,7 +41837,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>HTM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -41862,7 +41862,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>PVV</t>
+          <t>PGC</t>
         </is>
       </c>
       <c r="B590" t="inlineStr"/>
@@ -41887,7 +41887,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -41912,7 +41912,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>NHV</t>
+          <t>HMC</t>
         </is>
       </c>
       <c r="B592" t="inlineStr"/>
@@ -41937,7 +41937,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SBB</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="B593" t="inlineStr"/>
@@ -41962,7 +41962,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -41987,7 +41987,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>LGL</t>
+          <t>DRH</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -42012,7 +42012,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -42037,7 +42037,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>NDT</t>
         </is>
       </c>
       <c r="B597" t="inlineStr"/>
@@ -42062,7 +42062,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>PGN</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -42087,7 +42087,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>DTI</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -42112,7 +42112,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -42137,7 +42137,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>GIC</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -42162,7 +42162,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>FIR</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -42187,7 +42187,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>DNM</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -42212,7 +42212,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>HHP</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -42237,7 +42237,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -42262,7 +42262,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>HTP</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -42287,7 +42287,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>HAI</t>
+          <t>CSI</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -42312,7 +42312,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>LIG</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -42337,7 +42337,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>HNM</t>
+          <t>DDN</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -42362,7 +42362,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>KPF</t>
         </is>
       </c>
       <c r="B610" t="inlineStr"/>
@@ -42387,7 +42387,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>BFC</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -42412,7 +42412,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>QNC</t>
         </is>
       </c>
       <c r="B612" t="inlineStr"/>
@@ -42437,7 +42437,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B613" t="inlineStr"/>
@@ -42462,7 +42462,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>HAX</t>
+          <t>ADS</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -42487,7 +42487,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SD3</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="B615" t="inlineStr"/>
@@ -42512,7 +42512,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>GEX</t>
+          <t>TV3</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -42537,7 +42537,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ABI</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -42562,7 +42562,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -42587,7 +42587,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ACG</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -42612,7 +42612,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>DSC</t>
+          <t>KSF</t>
         </is>
       </c>
       <c r="B620" t="inlineStr"/>
@@ -42637,7 +42637,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -42662,7 +42662,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>HDG</t>
         </is>
       </c>
       <c r="B622" t="inlineStr"/>
@@ -42687,7 +42687,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>HRT</t>
+          <t>PVG</t>
         </is>
       </c>
       <c r="B623" t="inlineStr"/>
@@ -42712,7 +42712,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>TEG</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -42737,7 +42737,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -42762,7 +42762,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>NHV</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -42787,7 +42787,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="B627" t="inlineStr"/>
@@ -42812,7 +42812,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>PGV</t>
+          <t>DXV</t>
         </is>
       </c>
       <c r="B628" t="inlineStr"/>
@@ -42837,7 +42837,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -42862,7 +42862,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>C47</t>
         </is>
       </c>
       <c r="B630" t="inlineStr"/>
@@ -42887,7 +42887,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>DDG</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -42912,7 +42912,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -42937,7 +42937,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>DCL</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -42962,7 +42962,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>CMT</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -42987,7 +42987,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>

--- a/period_data/period_stock_list.xlsx
+++ b/period_data/period_stock_list.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="period_stock_list" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="period_map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_stock_df" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VCC</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -631,7 +632,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>KLB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -728,7 +729,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBS</t>
+          <t>OCH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -825,7 +826,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C4G</t>
+          <t>DVP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -922,7 +923,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POM</t>
+          <t>HSV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1019,7 +1020,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HRT</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1116,7 +1117,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1213,7 +1214,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIC</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1310,7 +1311,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>NDX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1407,7 +1408,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>GEG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1504,7 +1505,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OCB</t>
+          <t>MSB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1601,7 +1602,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1698,7 +1699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PVR</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1795,7 +1796,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1892,7 +1893,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1989,7 +1990,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ODE</t>
+          <t>PFL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2086,7 +2087,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VAB</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2183,7 +2184,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2280,7 +2281,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2377,7 +2378,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>GMA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2474,7 +2475,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DDV</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2571,7 +2572,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2668,7 +2669,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AGG</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2765,7 +2766,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>AAT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2862,7 +2863,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CEN</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2959,7 +2960,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3056,7 +3057,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VEC</t>
+          <t>GKM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3153,7 +3154,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3250,7 +3251,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>PVL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3347,7 +3348,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PVL</t>
+          <t>C69</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3444,7 +3445,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IVS</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3541,7 +3542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KSQ</t>
+          <t>DTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3638,7 +3639,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3735,7 +3736,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FCM</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3832,7 +3833,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>CMT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3929,7 +3930,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LIG</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4026,7 +4027,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ELC</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4123,7 +4124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ACG</t>
+          <t>VSE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4220,7 +4221,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BAB</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4317,7 +4318,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>CVN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4414,7 +4415,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PMB</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4511,7 +4512,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4608,7 +4609,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>KMR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4705,7 +4706,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4802,7 +4803,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HTP</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4899,7 +4900,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DGT</t>
+          <t>CST</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4996,7 +4997,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>HKB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5093,7 +5094,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>HDG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5190,7 +5191,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5287,7 +5288,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TCI</t>
+          <t>VC7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5384,7 +5385,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5481,7 +5482,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>PV2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5578,7 +5579,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5675,7 +5676,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>HMC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5772,7 +5773,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5869,7 +5870,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>VC1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5966,7 +5967,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>PPI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6063,7 +6064,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6160,7 +6161,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6257,7 +6258,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>SD5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6354,7 +6355,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>HAX</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6451,7 +6452,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6548,7 +6549,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SHN</t>
+          <t>VE9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6645,7 +6646,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VE9</t>
+          <t>LMH</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6742,7 +6743,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>TVD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6839,7 +6840,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HPG</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6936,7 +6937,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>VTK</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7033,7 +7034,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FIR</t>
+          <t>CII</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7130,7 +7131,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SGT</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7227,7 +7228,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7324,7 +7325,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TTZ</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7421,7 +7422,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PAS</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7518,7 +7519,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CST</t>
+          <t>GHC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7615,7 +7616,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>QBS</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7712,7 +7713,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IDC</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7809,7 +7810,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7906,7 +7907,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>IDC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8003,7 +8004,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BVB</t>
+          <t>TDT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8100,7 +8101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>VC9</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8197,7 +8198,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8294,7 +8295,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NCG</t>
+          <t>APC</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8391,7 +8392,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>HMR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8488,7 +8489,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SD6</t>
+          <t>SVD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8585,7 +8586,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>FLC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8682,7 +8683,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VLG</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8779,7 +8780,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GTT</t>
+          <t>IVS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8876,7 +8877,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GDT</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8973,7 +8974,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>ITD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9070,7 +9071,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>D2D</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9167,7 +9168,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PGS</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9264,7 +9265,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SJE</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9361,7 +9362,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SD3</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9458,7 +9459,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9555,7 +9556,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9652,7 +9653,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9749,7 +9750,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9846,7 +9847,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VUA</t>
+          <t>DZM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9943,7 +9944,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DBD</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -10040,7 +10041,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>ADS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10137,7 +10138,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10234,7 +10235,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HAH</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10331,7 +10332,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10428,7 +10429,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10525,7 +10526,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NAG</t>
+          <t>DPG</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10622,7 +10623,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10719,7 +10720,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GMA</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10816,7 +10817,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10913,7 +10914,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IPA</t>
+          <t>DL1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -11010,7 +11011,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VTZ</t>
+          <t>TL4</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -11107,7 +11108,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -11204,7 +11205,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HLD</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -11301,7 +11302,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ITD</t>
+          <t>TIS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -11398,7 +11399,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>KDM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -11495,7 +11496,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>HUB</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -11592,7 +11593,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EVG</t>
+          <t>DMC</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -11689,7 +11690,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ANV</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11786,7 +11787,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KDM</t>
+          <t>GMH</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11883,7 +11884,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11980,7 +11981,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>SAV</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -12077,7 +12078,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>VC2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -12174,7 +12175,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>MHC</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12271,7 +12272,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -12368,7 +12369,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>SJE</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -12465,7 +12466,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VID</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -12562,7 +12563,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AFX</t>
+          <t>DTI</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -12659,7 +12660,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -12756,7 +12757,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -12853,7 +12854,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DBC</t>
+          <t>PGT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -12950,7 +12951,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -13047,7 +13048,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -13144,7 +13145,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DHG</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -13241,7 +13242,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -13338,7 +13339,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -13435,7 +13436,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -13532,7 +13533,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>UDJ</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -13629,7 +13630,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>DXV</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -13726,7 +13727,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CII</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -13823,7 +13824,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>EIN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -13920,7 +13921,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -14017,7 +14018,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>SD3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -14114,7 +14115,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SRT</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -14211,7 +14212,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HIO</t>
+          <t>SGI</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -14308,7 +14309,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>OCH</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -14405,7 +14406,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -14502,7 +14503,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MSB</t>
+          <t>HVX</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -14599,7 +14600,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AMV</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -14696,7 +14697,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HQC</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -14793,7 +14794,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -14890,7 +14891,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>CTS</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -14987,7 +14988,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>CGV</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -15084,7 +15085,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ABI</t>
+          <t>HNM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -15181,7 +15182,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BWE</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -15278,7 +15279,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -15375,7 +15376,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DXS</t>
+          <t>QTP</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -15472,7 +15473,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -15569,7 +15570,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HVX</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -15666,7 +15667,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -15763,7 +15764,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -15860,7 +15861,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -15957,7 +15958,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -16054,7 +16055,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C32</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -16151,7 +16152,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -16248,7 +16249,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>NAB</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -16345,7 +16346,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -16442,7 +16443,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -16539,7 +16540,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>KSD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -16636,7 +16637,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>VFS</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -16733,7 +16734,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>ODE</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -16830,7 +16831,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CTG</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -16927,7 +16928,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SSN</t>
+          <t>NBB</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -17024,7 +17025,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HAP</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -17121,7 +17122,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -17218,7 +17219,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>LDP</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -17315,7 +17316,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>VID</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -17412,7 +17413,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PVV</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -17509,7 +17510,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>DTD</t>
+          <t>NAG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -17606,7 +17607,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>PVR</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -17703,7 +17704,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NHA</t>
+          <t>UDC</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -17800,7 +17801,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>EVG</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -17897,7 +17898,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HNM</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -17994,7 +17995,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -18091,7 +18092,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -18188,7 +18189,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>VNH</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -18285,7 +18286,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CVN</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -18382,7 +18383,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SBV</t>
+          <t>DDV</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -18479,7 +18480,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>HIO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -18576,7 +18577,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -18673,7 +18674,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HHP</t>
+          <t>C4G</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -18770,7 +18771,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DL1</t>
+          <t>PGC</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -18867,7 +18868,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>KMR</t>
+          <t>HAH</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -18964,7 +18965,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>GEX</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -19061,7 +19062,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DAH</t>
+          <t>BSI</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -19158,7 +19159,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>KHP</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -19255,7 +19256,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LMH</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -19352,7 +19353,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BTP</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -19449,7 +19450,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>KGM</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -19542,7 +19543,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -19635,7 +19636,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HDC</t>
+          <t>SBB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -19728,7 +19729,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MTA</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -19821,7 +19822,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VC7</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -19914,7 +19915,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>ART</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -20007,7 +20008,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -20100,7 +20101,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -20193,7 +20194,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -20286,7 +20287,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -20379,7 +20380,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -20472,7 +20473,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>SCS</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -20565,7 +20566,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>PAS</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -20658,7 +20659,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HAG</t>
+          <t>HPX</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -20751,7 +20752,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PBP</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -20844,7 +20845,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>BCA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -20937,7 +20938,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -21030,7 +21031,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TID</t>
+          <t>ANV</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -21123,7 +21124,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VBB</t>
+          <t>NCG</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -21216,7 +21217,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>FIR</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -21309,7 +21310,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>DPM</t>
+          <t>GTT</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -21402,7 +21403,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CTI</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -21495,7 +21496,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PGB</t>
+          <t>CMX</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -21588,7 +21589,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HCD</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -21681,7 +21682,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HAX</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -21774,7 +21775,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -21867,7 +21868,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -21960,7 +21961,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -22053,7 +22054,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GSP</t>
+          <t>PIV</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -22146,7 +22147,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>BMP</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -22239,7 +22240,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -22332,7 +22333,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>FPT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -22425,7 +22426,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>DSC</t>
+          <t>HTP</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -22518,7 +22519,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CTD</t>
+          <t>SIP</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -22611,7 +22612,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>HHS</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -22704,7 +22705,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>C32</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -22797,7 +22798,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HSV</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -22890,7 +22891,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>HDA</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -22983,7 +22984,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SDD</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -23076,7 +23077,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>NHP</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -23169,7 +23170,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -23262,7 +23263,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>OCB</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -23355,7 +23356,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -23448,7 +23449,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HAI</t>
+          <t>SD9</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -23541,7 +23542,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ITS</t>
+          <t>G36</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -23634,7 +23635,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -23727,7 +23728,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -23820,7 +23821,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -23913,7 +23914,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -24006,7 +24007,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>DIG</t>
+          <t>CEN</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -24099,7 +24100,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>HSL</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -24188,7 +24189,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -24277,7 +24278,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BMC</t>
+          <t>TCO</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -24366,7 +24367,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>VFS</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -24455,7 +24456,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -24544,7 +24545,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FPT</t>
+          <t>APG</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -24633,7 +24634,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PHC</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -24722,7 +24723,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DPG</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -24811,7 +24812,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>VLB</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -24900,7 +24901,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PVO</t>
+          <t>DRH</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -24989,7 +24990,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MLS</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -25078,7 +25079,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SCJ</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -25167,7 +25168,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>VC1</t>
+          <t>AMV</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -25256,7 +25257,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NCT</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -25345,7 +25346,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -25434,7 +25435,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>XMC</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -25523,7 +25524,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -25612,7 +25613,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CNG</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -25701,7 +25702,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>HPG</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -25790,7 +25791,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -25879,7 +25880,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SVT</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -25968,7 +25969,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PSP</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -26057,7 +26058,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SJD</t>
+          <t>GIC</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -26146,7 +26147,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PVP</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -26235,7 +26236,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -26324,7 +26325,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>KHP</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -26413,7 +26414,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HDA</t>
+          <t>DHG</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -26498,7 +26499,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PIV</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -26583,7 +26584,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>KSQ</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -26668,7 +26669,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>LSS</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -26753,7 +26754,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>DLG</t>
+          <t>ILB</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -26838,7 +26839,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -26923,7 +26924,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>EIB</t>
+          <t>ACG</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -27008,7 +27009,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -27093,7 +27094,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -27178,7 +27179,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -27263,7 +27264,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -27348,7 +27349,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -27433,7 +27434,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>DXP</t>
+          <t>TEG</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -27518,7 +27519,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>HBC</t>
+          <t>DS3</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -27603,7 +27604,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -27688,7 +27689,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -27773,7 +27774,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DCS</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -27858,7 +27859,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TEG</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -27943,7 +27944,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -28028,7 +28029,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SHA</t>
+          <t>AAH</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -28113,7 +28114,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>PTL</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -28198,7 +28199,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HKB</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -28283,7 +28284,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -28368,7 +28369,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -28453,7 +28454,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PGI</t>
+          <t>NHV</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -28538,7 +28539,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -28623,7 +28624,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>KKC</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -28708,7 +28709,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>VSE</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -28793,7 +28794,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ADG</t>
+          <t>ITQ</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -28878,7 +28879,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -28963,7 +28964,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -29048,7 +29049,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -29133,7 +29134,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -29218,7 +29219,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SGB</t>
+          <t>PDV</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -29299,7 +29300,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>BMC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -29380,7 +29381,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>ACV</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -29461,7 +29462,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -29542,7 +29543,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -29623,7 +29624,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -29704,7 +29705,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>VNL</t>
+          <t>DXP</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -29785,7 +29786,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -29862,7 +29863,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>CTR</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -29939,7 +29940,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>PVM</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -30016,7 +30017,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -30093,7 +30094,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CKG</t>
+          <t>SD6</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -30170,7 +30171,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CGV</t>
+          <t>PGV</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -30247,7 +30248,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>GVR</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -30324,7 +30325,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>VNH</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -30401,7 +30402,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DHA</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -30478,7 +30479,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>PVG</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -30555,7 +30556,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>NHP</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -30632,7 +30633,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>KVC</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -30709,7 +30710,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HAC</t>
+          <t>BVG</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -30786,7 +30787,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>CSI</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -30863,7 +30864,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>DSC</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -30940,7 +30941,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SD5</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -31017,7 +31018,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MFS</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -31094,7 +31095,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>TV3</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -31171,7 +31172,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -31248,7 +31249,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>PSW</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -31325,7 +31326,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -31402,7 +31403,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>CTF</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -31479,7 +31480,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -31556,7 +31557,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>FTS</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -31633,7 +31634,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>LIG</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -31710,7 +31711,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EVF</t>
+          <t>AVF</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -31787,7 +31788,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CTS</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -31864,7 +31865,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TA9</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -31941,7 +31942,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SSH</t>
+          <t>PGB</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -32018,7 +32019,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>VNS</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -32095,7 +32096,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PBC</t>
+          <t>DHM</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -32172,7 +32173,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CMT</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -32249,7 +32250,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MVC</t>
+          <t>DHC</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -32322,7 +32323,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SVD</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -32395,7 +32396,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -32468,7 +32469,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -32541,7 +32542,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>DQC</t>
+          <t>NNC</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -32614,7 +32615,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>UDJ</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -32687,7 +32688,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>G36</t>
+          <t>CKG</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -32760,7 +32761,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>LSS</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -32833,7 +32834,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>C69</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -32906,7 +32907,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FIT</t>
+          <t>HAC</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -32979,7 +32980,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PVM</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -33052,7 +33053,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>QNC</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -33121,7 +33122,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>HVG</t>
+          <t>DXG</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -33186,7 +33187,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>PGI</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -33251,7 +33252,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>SDT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -33316,7 +33317,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>UDC</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -33381,7 +33382,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -33446,7 +33447,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -33511,7 +33512,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -33576,7 +33577,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>LCM</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -33641,7 +33642,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BAF</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -33706,7 +33707,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>PV2</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -33771,7 +33772,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>HBS</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -33836,7 +33837,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BII</t>
+          <t>TKG</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -33897,7 +33898,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>DZM</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -33958,7 +33959,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>SDD</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -34019,7 +34020,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -34080,7 +34081,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -34141,7 +34142,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>DPR</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -34202,7 +34203,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>VNL</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -34263,7 +34264,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>NAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -34324,7 +34325,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -34385,7 +34386,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>FLC</t>
+          <t>HQC</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -34446,7 +34447,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>DPR</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -34507,7 +34508,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>BWE</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -34568,7 +34569,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>VLB</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -34629,7 +34630,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -34690,7 +34691,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>DNM</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -34751,7 +34752,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>DDG</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -34812,7 +34813,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -34873,7 +34874,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -34934,7 +34935,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>TCW</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -34995,7 +34996,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -35056,7 +35057,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>HRT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -35117,7 +35118,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -35178,7 +35179,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>SHA</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -35239,7 +35240,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>VEC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -35300,7 +35301,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>CTF</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -35361,7 +35362,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>DGW</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -35422,7 +35423,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>DPS</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -35479,7 +35480,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>ADG</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -35532,7 +35533,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>HHV</t>
+          <t>DGT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -35585,7 +35586,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -35634,7 +35635,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>HID</t>
+          <t>HAR</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -35683,7 +35684,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -35732,7 +35733,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -35781,7 +35782,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>SSH</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -35830,7 +35831,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -35879,7 +35880,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TVD</t>
+          <t>DVM</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -35928,7 +35929,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -35977,7 +35978,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>NED</t>
+          <t>LCM</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -36026,7 +36027,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -36075,7 +36076,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>GEX</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -36124,7 +36125,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>HD6</t>
+          <t>KPF</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -36173,7 +36174,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CMX</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -36218,7 +36219,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -36263,7 +36264,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -36308,7 +36309,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -36353,7 +36354,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -36398,7 +36399,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>VNB</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -36443,7 +36444,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -36488,7 +36489,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>PXT</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -36533,7 +36534,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SBB</t>
+          <t>DDG</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -36578,7 +36579,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>PDB</t>
+          <t>FCM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -36623,7 +36624,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>DPM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -36668,7 +36669,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>HID</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -36709,7 +36710,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -36750,7 +36751,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BVH</t>
+          <t>SJD</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -36791,7 +36792,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>HHG</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -36832,7 +36833,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -36873,7 +36874,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>CTG</t>
         </is>
       </c>
       <c r="B425" t="inlineStr"/>
@@ -36914,7 +36915,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>DAG</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -36951,7 +36952,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>CIG</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -36988,7 +36989,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -37025,7 +37026,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>THT</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -37062,7 +37063,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>KSD</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="B430" t="inlineStr"/>
@@ -37099,7 +37100,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>SVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -37136,7 +37137,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -37173,7 +37174,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>TIS</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -37210,7 +37211,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>EVS</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -37247,7 +37248,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>TKG</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -37284,7 +37285,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>VPD</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -37321,7 +37322,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>GMH</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -37358,7 +37359,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -37395,7 +37396,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SDT</t>
+          <t>DLG</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -37432,7 +37433,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>EIB</t>
         </is>
       </c>
       <c r="B440" t="inlineStr"/>
@@ -37469,7 +37470,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>ILA</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -37506,7 +37507,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>TTZ</t>
         </is>
       </c>
       <c r="B442" t="inlineStr"/>
@@ -37543,7 +37544,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>GEG</t>
+          <t>DQC</t>
         </is>
       </c>
       <c r="B443" t="inlineStr"/>
@@ -37580,7 +37581,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>MCH</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -37617,7 +37618,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -37654,7 +37655,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -37691,7 +37692,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>AVF</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -37724,7 +37725,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>DVM</t>
+          <t>HAP</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -37757,7 +37758,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -37790,7 +37791,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>KGM</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -37823,7 +37824,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BCE</t>
+          <t>SSN</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -37856,7 +37857,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>BVS</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -37889,7 +37890,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>DS3</t>
+          <t>POM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -37922,7 +37923,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BMP</t>
+          <t>HBC</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -37955,7 +37956,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -37988,7 +37989,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>DGW</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -38021,7 +38022,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PGV</t>
+          <t>C47</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -38054,7 +38055,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>PSP</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -38087,7 +38088,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>PSW</t>
+          <t>HHV</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -38120,7 +38121,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>HLD</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -38153,7 +38154,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>PGS</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -38186,7 +38187,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>DMC</t>
+          <t>HDC</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -38219,7 +38220,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>BCE</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -38252,7 +38253,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CIG</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -38285,7 +38286,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -38318,7 +38319,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -38351,7 +38352,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>DPS</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -38384,7 +38385,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>PVV</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -38417,7 +38418,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>BVH</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -38450,7 +38451,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>DBC</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -38483,7 +38484,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>KHG</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -38516,7 +38517,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PDV</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -38549,7 +38550,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -38582,7 +38583,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>DDN</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -38615,7 +38616,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MHC</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -38648,7 +38649,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -38681,7 +38682,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ILB</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -38714,7 +38715,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -38747,7 +38748,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>DGC</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -38780,7 +38781,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -38813,7 +38814,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>AAH</t>
+          <t>MTA</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -38846,7 +38847,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>HD6</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -38879,7 +38880,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B483" t="inlineStr"/>
@@ -38912,7 +38913,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>LGL</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -38945,7 +38946,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TCO</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="B485" t="inlineStr"/>
@@ -38978,7 +38979,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>DNM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -39011,7 +39012,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>PFL</t>
+          <t>SCJ</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -39044,7 +39045,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -39077,7 +39078,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>PTL</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -39110,7 +39111,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>FID</t>
+          <t>MFS</t>
         </is>
       </c>
       <c r="B490" t="inlineStr"/>
@@ -39143,7 +39144,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>NSH</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -39176,7 +39177,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="B492" t="inlineStr"/>
@@ -39209,7 +39210,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>KHG</t>
+          <t>BAF</t>
         </is>
       </c>
       <c r="B493" t="inlineStr"/>
@@ -39242,7 +39243,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -39275,7 +39276,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>EVS</t>
+          <t>DVG</t>
         </is>
       </c>
       <c r="B495" t="inlineStr"/>
@@ -39308,7 +39309,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -39341,7 +39342,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -39374,7 +39375,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>QTP</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="B498" t="inlineStr"/>
@@ -39407,7 +39408,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -39440,7 +39441,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SAV</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="B500" t="inlineStr"/>
@@ -39473,7 +39474,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>PGT</t>
+          <t>PDB</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -39506,7 +39507,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>BTP</t>
         </is>
       </c>
       <c r="B502" t="inlineStr"/>
@@ -39539,7 +39540,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -39572,7 +39573,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>DXG</t>
+          <t>THT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -39605,7 +39606,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>AAV</t>
+          <t>MVC</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -39638,7 +39639,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>DAG</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -39671,7 +39672,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>DHM</t>
+          <t>SRT</t>
         </is>
       </c>
       <c r="B507" t="inlineStr"/>
@@ -39704,7 +39705,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BIG</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -39737,7 +39738,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>ORS</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -39770,7 +39771,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>DHT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr"/>
@@ -39803,7 +39804,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>TCW</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -39836,7 +39837,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="B512" t="inlineStr"/>
@@ -39869,7 +39870,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>PXI</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B513" t="inlineStr"/>
@@ -39898,7 +39899,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -39927,7 +39928,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>VNB</t>
         </is>
       </c>
       <c r="B515" t="inlineStr"/>
@@ -39956,7 +39957,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ILA</t>
+          <t>KKC</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -39985,7 +39986,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>LGL</t>
+          <t>ST8</t>
         </is>
       </c>
       <c r="B517" t="inlineStr"/>
@@ -40014,7 +40015,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="B518" t="inlineStr"/>
@@ -40043,7 +40044,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>ITS</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -40072,7 +40073,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PXI</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -40101,7 +40102,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>DVP</t>
+          <t>BIC</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -40130,7 +40131,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>HHP</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -40159,7 +40160,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -40188,7 +40189,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>APC</t>
+          <t>PSI</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -40217,7 +40218,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>HTM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr"/>
@@ -40246,7 +40247,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>LDP</t>
+          <t>AGG</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -40275,7 +40276,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>DHA</t>
         </is>
       </c>
       <c r="B527" t="inlineStr"/>
@@ -40304,7 +40305,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="B528" t="inlineStr"/>
@@ -40333,7 +40334,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -40362,7 +40363,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>HHG</t>
         </is>
       </c>
       <c r="B530" t="inlineStr"/>
@@ -40387,7 +40388,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>KSF</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -40412,7 +40413,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>AFX</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -40437,7 +40438,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>KVC</t>
         </is>
       </c>
       <c r="B533" t="inlineStr"/>
@@ -40462,7 +40463,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>VUA</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -40487,7 +40488,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="B535" t="inlineStr"/>
@@ -40512,7 +40513,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>VAB</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -40537,7 +40538,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>AAV</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -40562,7 +40563,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>GDT</t>
         </is>
       </c>
       <c r="B538" t="inlineStr"/>
@@ -40587,7 +40588,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>HUB</t>
+          <t>GSP</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -40612,7 +40613,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B540" t="inlineStr"/>
@@ -40637,7 +40638,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>HU4</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -40662,7 +40663,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>DHC</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="B542" t="inlineStr"/>
@@ -40687,7 +40688,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -40712,7 +40713,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BVS</t>
+          <t>BDT</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -40737,7 +40738,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>GKM</t>
+          <t>NDT</t>
         </is>
       </c>
       <c r="B545" t="inlineStr"/>
@@ -40762,7 +40763,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>VC9</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -40787,7 +40788,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BVG</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -40812,7 +40813,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>CTI</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
@@ -40837,7 +40838,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>AAT</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -40862,7 +40863,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>BII</t>
         </is>
       </c>
       <c r="B550" t="inlineStr"/>
@@ -40887,7 +40888,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>TL4</t>
+          <t>HCM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -40912,7 +40913,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B552" t="inlineStr"/>
@@ -40937,7 +40938,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>BFC</t>
+          <t>PBC</t>
         </is>
       </c>
       <c r="B553" t="inlineStr"/>
@@ -40962,7 +40963,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>HCD</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -40987,7 +40988,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="B555" t="inlineStr"/>
@@ -41012,7 +41013,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>HU4</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -41037,7 +41038,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>D2D</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="B557" t="inlineStr"/>
@@ -41062,7 +41063,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>HSG</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -41087,7 +41088,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ST8</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -41112,7 +41113,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="B560" t="inlineStr"/>
@@ -41137,7 +41138,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>PXT</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -41162,7 +41163,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>CTR</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B562" t="inlineStr"/>
@@ -41187,7 +41188,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="B563" t="inlineStr"/>
@@ -41212,7 +41213,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>BSI</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -41237,7 +41238,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="B565" t="inlineStr"/>
@@ -41262,7 +41263,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>SGT</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -41287,7 +41288,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>HPX</t>
+          <t>DBD</t>
         </is>
       </c>
       <c r="B567" t="inlineStr"/>
@@ -41312,7 +41313,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>DCL</t>
         </is>
       </c>
       <c r="B568" t="inlineStr"/>
@@ -41337,7 +41338,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>DVG</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -41362,7 +41363,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="B570" t="inlineStr"/>
@@ -41387,7 +41388,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORS</t>
+          <t>GVR</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -41412,7 +41413,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>HAI</t>
         </is>
       </c>
       <c r="B572" t="inlineStr"/>
@@ -41437,7 +41438,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>PHC</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -41462,7 +41463,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -41487,7 +41488,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -41512,7 +41513,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SMC</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -41537,7 +41538,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>DXS</t>
         </is>
       </c>
       <c r="B577" t="inlineStr"/>
@@ -41562,7 +41563,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>CTD</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -41587,7 +41588,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SD9</t>
+          <t>FIT</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -41612,7 +41613,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>PGN</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -41637,7 +41638,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>BVB</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -41662,7 +41663,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B582" t="inlineStr"/>
@@ -41687,7 +41688,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="B583" t="inlineStr"/>
@@ -41712,7 +41713,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>HAR</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -41737,7 +41738,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr"/>
@@ -41762,7 +41763,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -41787,7 +41788,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -41812,7 +41813,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="B588" t="inlineStr"/>
@@ -41837,7 +41838,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>HTM</t>
+          <t>VLG</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -41862,7 +41863,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>PGC</t>
+          <t>DGC</t>
         </is>
       </c>
       <c r="B590" t="inlineStr"/>
@@ -41887,7 +41888,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -41912,7 +41913,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="B592" t="inlineStr"/>
@@ -41937,7 +41938,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B593" t="inlineStr"/>
@@ -41962,7 +41963,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>ABS</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -41987,7 +41988,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>DRH</t>
+          <t>PMB</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -42012,7 +42013,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -42037,7 +42038,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>NDT</t>
+          <t>SHN</t>
         </is>
       </c>
       <c r="B597" t="inlineStr"/>
@@ -42062,7 +42063,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>PGN</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -42087,7 +42088,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>DTI</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -42112,7 +42113,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -42137,7 +42138,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>GIC</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -42162,7 +42163,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>TA9</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -42187,7 +42188,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>VFG</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -42212,7 +42213,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -42237,7 +42238,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -42262,7 +42263,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -42287,7 +42288,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>CSI</t>
+          <t>TID</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -42312,7 +42313,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -42337,7 +42338,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>DDN</t>
+          <t>PVO</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -42362,7 +42363,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>KPF</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="B610" t="inlineStr"/>
@@ -42387,7 +42388,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -42412,7 +42413,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>QNC</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="B612" t="inlineStr"/>
@@ -42437,7 +42438,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>HAG</t>
         </is>
       </c>
       <c r="B613" t="inlineStr"/>
@@ -42462,7 +42463,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ADS</t>
+          <t>VTZ</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -42487,7 +42488,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="B615" t="inlineStr"/>
@@ -42512,7 +42513,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>TV3</t>
+          <t>VCC</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -42537,7 +42538,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>BFC</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -42562,7 +42563,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>DIG</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -42587,7 +42588,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -42612,7 +42613,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>KSF</t>
+          <t>SGB</t>
         </is>
       </c>
       <c r="B620" t="inlineStr"/>
@@ -42637,7 +42638,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>NSH</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -42662,7 +42663,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>HDG</t>
+          <t>SBV</t>
         </is>
       </c>
       <c r="B622" t="inlineStr"/>
@@ -42687,7 +42688,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>PVG</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="B623" t="inlineStr"/>
@@ -42712,7 +42713,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>DAH</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -42737,7 +42738,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -42762,7 +42763,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>NHV</t>
+          <t>QBS</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -42787,7 +42788,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>FID</t>
         </is>
       </c>
       <c r="B627" t="inlineStr"/>
@@ -42812,7 +42813,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>DXV</t>
+          <t>HVG</t>
         </is>
       </c>
       <c r="B628" t="inlineStr"/>
@@ -42837,7 +42838,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -42862,7 +42863,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>C47</t>
+          <t>CTP</t>
         </is>
       </c>
       <c r="B630" t="inlineStr"/>
@@ -42887,7 +42888,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -42912,7 +42913,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -42937,7 +42938,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>DCL</t>
+          <t>PBP</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -42962,7 +42963,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>NED</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -42987,7 +42988,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>
@@ -43407,4 +43408,65 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>new_stock_list</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VTK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VFG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PIV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/period_data/period_stock_list.xlsx
+++ b/period_data/period_stock_list.xlsx
@@ -535,7 +535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>HAG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>ACG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OCH</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -826,7 +826,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DVP</t>
+          <t>VLB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HSV</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>PGI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>QTP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GEG</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MSB</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>BMP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>ORS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1796,7 +1796,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>SGB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>IVS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFL</t>
+          <t>HPG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2087,7 +2087,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>KGM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>PAS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GMA</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2669,7 +2669,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>VNH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2766,7 +2766,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AAT</t>
+          <t>PVR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2863,7 +2863,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>TVD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GKM</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3154,7 +3154,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3251,7 +3251,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PVL</t>
+          <t>VEC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C69</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3445,7 +3445,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>PVV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3542,7 +3542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DTD</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3639,7 +3639,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>MSB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3833,7 +3833,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CMT</t>
+          <t>VID</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3930,7 +3930,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>IDC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4027,7 +4027,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>HDA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VSE</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4221,7 +4221,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CVN</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4415,7 +4415,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>DHT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4609,7 +4609,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KMR</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4706,7 +4706,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4803,7 +4803,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CST</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4997,7 +4997,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HKB</t>
+          <t>HTM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HDG</t>
+          <t>ADG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5191,7 +5191,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5288,7 +5288,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VC7</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5385,7 +5385,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>HAP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5482,7 +5482,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PV2</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5579,7 +5579,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>BCE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>SCS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5773,7 +5773,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VC1</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5967,7 +5967,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>HVG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6064,7 +6064,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6161,7 +6161,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>CTG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SD5</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6355,7 +6355,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HAX</t>
+          <t>SD9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>DPM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VE9</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6646,7 +6646,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LMH</t>
+          <t>VC7</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6743,7 +6743,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TVD</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6840,7 +6840,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>DLG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6937,7 +6937,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>LMH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7034,7 +7034,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CII</t>
+          <t>DMC</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7131,7 +7131,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7228,7 +7228,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>TID</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7325,7 +7325,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7422,7 +7422,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>CTS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7519,7 +7519,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7616,7 +7616,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7810,7 +7810,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>DHA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7907,7 +7907,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IDC</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8004,7 +8004,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>ITQ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VC9</t>
+          <t>PHC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8198,7 +8198,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8295,7 +8295,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>APC</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8392,7 +8392,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8489,7 +8489,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SVD</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8586,7 +8586,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FLC</t>
+          <t>KMR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8683,7 +8683,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>BSI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8780,7 +8780,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IVS</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8877,7 +8877,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>HDC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8974,7 +8974,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ITD</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9071,7 +9071,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D2D</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9168,7 +9168,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9265,7 +9265,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9362,7 +9362,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9459,7 +9459,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>ADS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9556,7 +9556,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9653,7 +9653,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9750,7 +9750,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9847,7 +9847,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DZM</t>
+          <t>HU4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9944,7 +9944,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -10041,7 +10041,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ADS</t>
+          <t>SGI</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10138,7 +10138,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10235,7 +10235,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10332,7 +10332,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10429,7 +10429,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10526,7 +10526,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DPG</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10623,7 +10623,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -10720,7 +10720,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>ILB</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -10817,7 +10817,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>CEN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -10914,7 +10914,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DL1</t>
+          <t>GMH</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -11011,17 +11011,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TL4</t>
+          <t>FPT</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -11108,17 +11108,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>SVT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11205,17 +11205,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -11302,17 +11302,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TIS</t>
+          <t>DPR</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -11399,17 +11399,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>KDM</t>
+          <t>SD6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11496,17 +11496,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HUB</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11593,17 +11593,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DMC</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11690,17 +11690,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>GMA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -11787,17 +11787,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GMH</t>
+          <t>TA9</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11884,17 +11884,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11981,17 +11981,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SAV</t>
+          <t>PSP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12078,17 +12078,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>NED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12175,17 +12175,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MHC</t>
+          <t>HVX</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12272,17 +12272,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>OCH</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12369,17 +12369,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SJE</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12466,17 +12466,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>NAG</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12563,17 +12563,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DTI</t>
+          <t>PGB</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12660,17 +12660,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BCA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12757,17 +12757,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>LMH</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12854,17 +12854,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PGT</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LMH</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12951,17 +12951,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>AGG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>HBS</t>
+          <t>HCD</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -13048,17 +13048,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>HCD</t>
+          <t>HCM</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -13145,17 +13145,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>DVM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -13242,17 +13242,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>HDC</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -13339,17 +13339,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TCI</t>
+          <t>PPI</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>HDC</t>
+          <t>HDG</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -13436,17 +13436,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>UDC</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>HDG</t>
+          <t>HHG</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -13533,17 +13533,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>VC9</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>HHG</t>
+          <t>HHP</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -13630,17 +13630,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DXV</t>
+          <t>PSW</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>HHP</t>
+          <t>HHS</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -13727,17 +13727,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HID</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -13824,17 +13824,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>HID</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -13921,17 +13921,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>NBB</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>HLD</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -14018,17 +14018,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SD3</t>
+          <t>CKG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>HLD</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -14115,17 +14115,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>VPD</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -14212,17 +14212,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>HPG</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -14309,17 +14309,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>HPG</t>
+          <t>HPX</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -14406,17 +14406,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>FIR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>HPX</t>
+          <t>HQC</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -14503,17 +14503,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HVX</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>HQC</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -14600,17 +14600,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>QNC</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>HSG</t>
+          <t>HSL</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -14697,17 +14697,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -14794,17 +14794,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>LCM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -14891,17 +14891,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CTS</t>
+          <t>CMT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -14988,17 +14988,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CGV</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -15013,7 +15013,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -15085,17 +15085,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HNM</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -15110,7 +15110,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>HVG</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -15182,17 +15182,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>DPS</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -15207,7 +15207,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>HVG</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -15279,17 +15279,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>BVH</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -15376,17 +15376,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>QTP</t>
+          <t>KSQ</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -15473,17 +15473,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>AFX</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -15570,17 +15570,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>IDC</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -15667,17 +15667,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>LSS</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>PGC</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>IDC</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -15764,17 +15764,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>LIG</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PGC</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -15789,7 +15789,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -15861,17 +15861,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -15958,17 +15958,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>ILB</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -16055,17 +16055,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SHA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ILB</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -16152,17 +16152,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -16249,17 +16249,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NAB</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ITD</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -16346,17 +16346,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>KHG</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ITD</t>
+          <t>ITQ</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -16443,17 +16443,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>GVR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>IVS</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -16540,17 +16540,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>KSD</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>IVS</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -16637,17 +16637,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>VFS</t>
+          <t>HQC</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -16734,17 +16734,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ODE</t>
+          <t>DL1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -16831,17 +16831,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -16928,17 +16928,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>ITD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>KHP</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -17025,17 +17025,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>KHP</t>
+          <t>KLB</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -17122,17 +17122,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -17147,7 +17147,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -17219,17 +17219,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LDP</t>
+          <t>PV2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -17244,7 +17244,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>KMR</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -17316,17 +17316,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>VID</t>
+          <t>CMX</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>KMR</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -17413,17 +17413,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>TKG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -17510,17 +17510,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>NAG</t>
+          <t>GSP</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -17535,7 +17535,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -17607,17 +17607,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PVR</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>KVC</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -17704,17 +17704,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UDC</t>
+          <t>NCG</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -17729,7 +17729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>KVC</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -17801,17 +17801,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EVG</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -17898,17 +17898,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>BVS</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -17995,17 +17995,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>AAH</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -18092,17 +18092,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>SCJ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>LGL</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -18189,17 +18189,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>NHP</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>LGL</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -18286,17 +18286,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>LIG</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -18383,17 +18383,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>DDV</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>LIG</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -18480,17 +18480,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HIO</t>
+          <t>BIC</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -18577,17 +18577,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>BMC</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -18602,7 +18602,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>LSS</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -18674,17 +18674,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C4G</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>LSS</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -18771,17 +18771,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PGC</t>
+          <t>SD3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -18868,17 +18868,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HAH</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -18965,17 +18965,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GEX</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -19062,17 +19062,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BSI</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -19087,7 +19087,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -19159,17 +19159,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>MFS</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -19256,17 +19256,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MLS</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -19281,7 +19281,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>MFS</t>
+          <t>MHC</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -19353,17 +19353,13 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MSH</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>YEG</t>
-        </is>
-      </c>
+          <t>KHP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -19378,7 +19374,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>MHC</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -19450,13 +19446,13 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KGM</t>
+          <t>AMV</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -19471,7 +19467,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -19543,13 +19539,13 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -19564,7 +19560,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -19636,13 +19632,13 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SBB</t>
+          <t>GHC</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -19657,7 +19653,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>MSB</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -19729,13 +19725,13 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>EIN</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -19750,7 +19746,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>MSB</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -19822,13 +19818,13 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>CIG</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -19843,7 +19839,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -19915,13 +19911,13 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>OCB</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -19936,7 +19932,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -20008,13 +20004,13 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>CNG</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -20029,7 +20025,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -20101,13 +20097,13 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -20122,7 +20118,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>MTA</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -20194,13 +20190,13 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -20215,7 +20211,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>MTA</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -20287,13 +20283,13 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -20308,7 +20304,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>NAB</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -20380,13 +20376,13 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>SIP</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -20401,7 +20397,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>NAB</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -20473,13 +20469,13 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>DHG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -20494,7 +20490,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -20566,13 +20562,13 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PAS</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -20587,7 +20583,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -20659,13 +20655,13 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HPX</t>
+          <t>CSI</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -20680,7 +20676,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>NCT</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -20752,13 +20748,13 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>HD6</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -20773,7 +20769,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -20845,13 +20841,13 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -20866,7 +20862,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>NHA</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -20938,13 +20934,13 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -20959,7 +20955,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -21031,13 +21027,13 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ANV</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -21052,7 +21048,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -21124,13 +21120,13 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>NCG</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -21145,7 +21141,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>NNC</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -21217,13 +21213,13 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FIR</t>
+          <t>NBB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -21238,7 +21234,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -21310,13 +21306,13 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GTT</t>
+          <t>DHM</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -21331,7 +21327,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>NSH</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -21403,13 +21399,13 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -21424,7 +21420,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>NSH</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -21496,13 +21492,13 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CMX</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -21517,7 +21513,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -21589,13 +21585,13 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -21610,7 +21606,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -21682,13 +21678,13 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>VUA</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -21703,7 +21699,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -21775,13 +21771,13 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>VNL</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -21796,7 +21792,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -21868,13 +21864,13 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21889,7 +21885,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -21961,13 +21957,13 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -21982,7 +21978,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>OCB</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -22054,13 +22050,13 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PIV</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -22075,7 +22071,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>OCB</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -22147,13 +22143,13 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BMP</t>
+          <t>PTL</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -22168,7 +22164,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -22240,13 +22236,13 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>GEG</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -22261,7 +22257,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>ORS</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -22333,13 +22329,13 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FPT</t>
+          <t>VSE</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -22354,7 +22350,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>ORS</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -22426,13 +22422,13 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HTP</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -22447,7 +22443,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PAS</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -22519,13 +22515,13 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -22540,7 +22536,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>PAS</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -22612,13 +22608,13 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HMR</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -22633,7 +22629,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -22705,13 +22701,13 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>C32</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -22726,7 +22722,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -22798,13 +22794,13 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -22819,7 +22815,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>PFL</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -22891,13 +22887,13 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HDA</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -22912,7 +22908,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>PFL</t>
+          <t>PGB</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -22984,13 +22980,13 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>MVC</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -23005,7 +23001,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>PGB</t>
+          <t>PGN</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -23077,13 +23073,13 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>NHP</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -23098,7 +23094,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>PGN</t>
+          <t>PGS</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -23170,13 +23166,13 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -23191,7 +23187,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>PGS</t>
+          <t>PHC</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -23263,13 +23259,13 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>OCB</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -23284,7 +23280,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>PHC</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -23356,13 +23352,13 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>BVB</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -23377,7 +23373,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -23449,13 +23445,13 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SD9</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -23470,7 +23466,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -23542,13 +23538,13 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>G36</t>
+          <t>HDG</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -23563,7 +23559,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -23635,13 +23631,13 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -23656,7 +23652,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -23728,13 +23724,13 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>MTA</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -23749,7 +23745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>POM</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -23821,13 +23817,13 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -23842,7 +23838,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>POM</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -23914,13 +23910,13 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -23935,7 +23931,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -24007,15 +24003,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CEN</t>
+          <t>SVD</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>VTP</t>
-        </is>
-      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
           <t>VCS</t>
@@ -24028,7 +24020,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -24100,7 +24092,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -24117,7 +24109,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -24189,7 +24181,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>TCO</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -24206,7 +24198,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -24278,7 +24270,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TCO</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -24295,7 +24287,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -24367,7 +24359,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>HHV</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -24384,7 +24376,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -24456,7 +24448,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>DXG</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -24473,7 +24465,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -24545,7 +24537,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -24562,7 +24554,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -24634,7 +24626,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -24651,7 +24643,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>PVG</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -24723,7 +24715,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -24740,7 +24732,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>PVG</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -24812,7 +24804,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>VLB</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -24829,7 +24821,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>PVL</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -24901,7 +24893,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>DRH</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -24918,7 +24910,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>PVL</t>
+          <t>PVM</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -24990,7 +24982,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -25007,7 +24999,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>PVM</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -25079,7 +25071,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>PDB</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -25096,7 +25088,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>PVP</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -25168,7 +25160,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AMV</t>
+          <t>KKC</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -25185,7 +25177,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -25257,7 +25249,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>FLC</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -25274,7 +25266,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>PVV</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -25346,7 +25338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>DQC</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -25363,7 +25355,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>PVV</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -25435,7 +25427,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -25452,7 +25444,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -25524,7 +25516,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>DDG</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -25541,7 +25533,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -25613,7 +25605,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -25630,7 +25622,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -25702,7 +25694,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HPG</t>
+          <t>SBV</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -25719,7 +25711,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>QBS</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -25791,7 +25783,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>NCT</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -25808,7 +25800,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>QBS</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -25880,7 +25872,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -25897,7 +25889,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -25969,7 +25961,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>NHA</t>
+          <t>SHN</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -25986,7 +25978,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>QTP</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -26058,7 +26050,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GIC</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -26075,7 +26067,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>QTP</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -26147,7 +26139,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -26164,7 +26156,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -26236,7 +26228,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>NSH</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -26253,7 +26245,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -26325,7 +26317,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>KHP</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -26342,7 +26334,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -26414,7 +26406,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>DHG</t>
+          <t>HBS</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -26427,7 +26419,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -26499,7 +26491,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -26512,7 +26504,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SAV</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -26584,7 +26576,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>KSQ</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -26597,7 +26589,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>SAV</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -26669,7 +26661,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -26682,7 +26674,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -26754,7 +26746,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ILB</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -26767,7 +26759,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -26839,7 +26831,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -26852,7 +26844,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>SBV</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -26924,7 +26916,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ACG</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -26937,7 +26929,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>SBV</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -27009,7 +27001,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>CST</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -27022,7 +27014,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -27094,7 +27086,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -27107,7 +27099,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SD5</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -27179,7 +27171,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>DXS</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -27192,7 +27184,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>SD5</t>
+          <t>SD6</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -27264,7 +27256,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -27277,7 +27269,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>SD6</t>
+          <t>SD9</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -27349,7 +27341,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>PMB</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -27362,7 +27354,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>SD9</t>
+          <t>SDT</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -27434,7 +27426,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>TEG</t>
+          <t>PGT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -27447,7 +27439,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>SDT</t>
+          <t>SGB</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -27519,7 +27511,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>DS3</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -27532,7 +27524,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>SGB</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -27604,7 +27596,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>VAB</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -27617,7 +27609,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -27689,7 +27681,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>PFL</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -27702,7 +27694,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -27774,7 +27766,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>PIV</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -27787,7 +27779,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -27859,7 +27851,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>QBS</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -27872,7 +27864,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -27944,7 +27936,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>DTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -27957,7 +27949,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>SIP</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -28029,7 +28021,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AAH</t>
+          <t>LDP</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -28042,7 +28034,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>SJD</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -28114,7 +28106,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PTL</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -28127,7 +28119,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>SJD</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -28199,7 +28191,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -28212,7 +28204,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -28284,7 +28276,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>VTZ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -28297,7 +28289,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -28369,7 +28361,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -28382,7 +28374,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -28454,7 +28446,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>NHV</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -28467,7 +28459,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>SMC</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -28539,7 +28531,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -28552,7 +28544,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -28624,7 +28616,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>DIG</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -28637,7 +28629,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -28709,7 +28701,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SMC</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -28722,7 +28714,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -28794,7 +28786,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>BWE</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -28807,7 +28799,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>SSN</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -28879,7 +28871,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>NDX</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -28892,7 +28884,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>SSN</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -28964,7 +28956,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BAB</t>
+          <t>ITS</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -28977,7 +28969,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -29049,7 +29041,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -29062,7 +29054,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -29134,7 +29126,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -29147,7 +29139,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>SVD</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -29219,7 +29211,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PDV</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -29228,7 +29220,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>SVD</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -29300,7 +29292,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BMC</t>
+          <t>PVO</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -29309,7 +29301,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -29381,7 +29373,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -29390,7 +29382,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -29462,7 +29454,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -29471,7 +29463,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -29543,7 +29535,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -29552,7 +29544,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -29624,7 +29616,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -29633,7 +29625,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -29705,7 +29697,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DXP</t>
+          <t>DBD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -29714,7 +29706,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -29786,7 +29778,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -29795,7 +29787,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -29863,7 +29855,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CTR</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -29872,7 +29864,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -29940,7 +29932,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PVM</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -29949,7 +29941,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -30017,7 +30009,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PVP</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -30026,7 +30018,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -30094,7 +30086,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SD6</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -30103,7 +30095,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -30171,7 +30163,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PGV</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -30180,7 +30172,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>TDT</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -30248,7 +30240,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -30257,7 +30249,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -30325,7 +30317,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>VNH</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -30334,7 +30326,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -30402,7 +30394,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>HCD</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -30411,7 +30403,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -30479,7 +30471,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PVG</t>
+          <t>HHP</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -30488,7 +30480,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -30556,7 +30548,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -30565,7 +30557,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -30633,7 +30625,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>SSH</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -30642,7 +30634,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -30710,7 +30702,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BVG</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -30719,7 +30711,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -30787,7 +30779,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>CSI</t>
+          <t>ILA</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -30796,7 +30788,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -30864,7 +30856,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DSC</t>
+          <t>VNB</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -30873,7 +30865,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -30941,7 +30933,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -30950,7 +30942,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -31018,7 +31010,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>PGS</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -31027,7 +31019,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -31095,7 +31087,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TV3</t>
+          <t>NNC</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -31104,7 +31096,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -31172,7 +31164,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>HHS</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -31181,7 +31173,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -31249,7 +31241,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PSW</t>
+          <t>SSN</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -31258,7 +31250,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -31326,7 +31318,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>D2D</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -31335,7 +31327,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -31403,7 +31395,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CTF</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -31412,7 +31404,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -31480,7 +31472,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>NDT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -31489,7 +31481,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -31557,7 +31549,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>PGV</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -31566,7 +31558,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -31634,7 +31626,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>LIG</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -31643,7 +31635,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -31711,7 +31703,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>AVF</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -31720,7 +31712,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -31788,7 +31780,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -31797,7 +31789,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -31865,7 +31857,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -31874,7 +31866,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -31942,7 +31934,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PGB</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -31951,7 +31943,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -32019,7 +32011,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -32028,7 +32020,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -32096,7 +32088,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>DHM</t>
+          <t>DVG</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -32105,7 +32097,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -32173,7 +32165,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>EVG</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -32182,7 +32174,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -32250,7 +32242,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DHC</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -32259,7 +32251,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -32323,7 +32315,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>VBB</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -32332,7 +32324,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -32396,7 +32388,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>HSL</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -32405,7 +32397,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -32469,7 +32461,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>DS3</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -32478,7 +32470,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -32542,7 +32534,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>VNS</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -32551,7 +32543,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -32615,7 +32607,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>UDJ</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -32624,7 +32616,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -32688,7 +32680,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CKG</t>
+          <t>G36</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -32697,7 +32689,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -32761,7 +32753,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>LSS</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -32770,7 +32762,7 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -32834,7 +32826,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -32843,7 +32835,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -32907,7 +32899,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>HAC</t>
+          <t>ART</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -32916,7 +32908,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -32980,7 +32972,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -32989,7 +32981,7 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -33053,7 +33045,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>QNC</t>
+          <t>HIO</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -33062,7 +33054,7 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -33122,7 +33114,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>DXG</t>
+          <t>POM</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -33131,7 +33123,7 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -33187,7 +33179,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PGI</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -33196,7 +33188,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -33252,7 +33244,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SDT</t>
+          <t>MFS</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -33261,7 +33253,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -33317,7 +33309,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>HID</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -33326,7 +33318,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -33382,7 +33374,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>NHV</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -33391,7 +33383,7 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -33447,7 +33439,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -33456,7 +33448,7 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -33512,7 +33504,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -33521,7 +33513,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -33577,7 +33569,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>MHC</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -33586,7 +33578,7 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -33642,7 +33634,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -33651,7 +33643,7 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -33707,7 +33699,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>IPA</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -33716,7 +33708,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -33772,7 +33764,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>HBS</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -33781,7 +33773,7 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -33837,7 +33829,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>TKG</t>
+          <t>GTT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -33846,7 +33838,7 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -33898,7 +33890,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -33907,7 +33899,7 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -33959,7 +33951,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SDD</t>
+          <t>DVP</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -33968,7 +33960,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -34020,7 +34012,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -34029,7 +34021,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -34081,7 +34073,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>ANV</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -34090,7 +34082,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -34142,7 +34134,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>DPR</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -34151,7 +34143,7 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -34203,7 +34195,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>VNL</t>
+          <t>AVF</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -34212,7 +34204,7 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -34264,7 +34256,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>FID</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -34273,7 +34265,7 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -34325,7 +34317,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>SBB</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -34334,7 +34326,7 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -34386,7 +34378,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>HQC</t>
+          <t>GIC</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -34395,7 +34387,7 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -34447,7 +34439,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>HHG</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -34456,7 +34448,7 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -34508,7 +34500,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BWE</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -34517,7 +34509,7 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -34569,7 +34561,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -34578,7 +34570,7 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -34630,7 +34622,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>SGT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -34639,7 +34631,7 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -34691,7 +34683,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -34700,7 +34692,7 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -34752,7 +34744,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -34761,7 +34753,7 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -34813,7 +34805,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -34822,7 +34814,7 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -34874,7 +34866,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -34883,7 +34875,7 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -34935,7 +34927,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -34944,7 +34936,7 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -34996,7 +34988,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>CTF</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -35005,7 +34997,7 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -35057,7 +35049,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>HRT</t>
+          <t>HPX</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -35066,7 +35058,7 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -35118,7 +35110,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>KVC</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -35127,7 +35119,7 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -35179,7 +35171,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SHA</t>
+          <t>C32</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -35188,7 +35180,7 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -35240,7 +35232,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>VEC</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -35249,7 +35241,7 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -35301,7 +35293,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -35310,7 +35302,7 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -35362,7 +35354,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>PSI</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -35371,7 +35363,7 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -35423,18 +35415,14 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>DPS</t>
+          <t>BAF</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>XMC</t>
-        </is>
-      </c>
+      <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
         <is>
           <t>VMC</t>
@@ -35480,7 +35468,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ADG</t>
+          <t>VC1</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -35533,7 +35521,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>DGT</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -35586,7 +35574,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -35635,7 +35623,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>HAR</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -35684,7 +35672,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -35733,7 +35721,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -35782,7 +35770,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SSH</t>
+          <t>VFS</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -35831,7 +35819,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>DSC</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -35880,7 +35868,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>DVM</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -35929,7 +35917,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -35978,7 +35966,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>LCM</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -36027,7 +36015,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>HKB</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -36076,7 +36064,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>ACV</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -36125,7 +36113,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>KPF</t>
+          <t>CGV</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -36174,7 +36162,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -36219,7 +36207,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>SAV</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -36264,7 +36252,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>XMC</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -36309,7 +36297,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>DNM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -36354,7 +36342,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DXV</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -36399,7 +36387,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -36444,7 +36432,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ELC</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -36489,7 +36477,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -36534,7 +36522,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>DDG</t>
+          <t>HTP</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -36579,7 +36567,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>FCM</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -36624,7 +36612,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>DPM</t>
+          <t>DTI</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -36669,7 +36657,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>HID</t>
+          <t>BVG</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -36710,7 +36698,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -36751,7 +36739,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SJD</t>
+          <t>DDV</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -36792,7 +36780,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -36833,7 +36821,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -36874,7 +36862,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CTG</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="B425" t="inlineStr"/>
@@ -36915,7 +36903,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>DAG</t>
+          <t>EIB</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -36952,7 +36940,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CIG</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -36989,7 +36977,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -37026,7 +37014,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -37063,7 +37051,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>TV3</t>
         </is>
       </c>
       <c r="B430" t="inlineStr"/>
@@ -37100,7 +37088,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SVT</t>
+          <t>CTI</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -37137,7 +37125,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -37174,7 +37162,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>EVF</t>
+          <t>HNM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -37211,7 +37199,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>EVS</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -37248,7 +37236,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>CII</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -37285,7 +37273,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>EVS</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -37322,7 +37310,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>APG</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -37359,7 +37347,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>HSV</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -37396,7 +37384,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>DLG</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -37433,7 +37421,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>EIB</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="B440" t="inlineStr"/>
@@ -37470,7 +37458,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ILA</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -37507,7 +37495,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>TTZ</t>
+          <t>THT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr"/>
@@ -37544,7 +37532,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>DQC</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr"/>
@@ -37581,7 +37569,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -37618,7 +37606,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>CVN</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -37655,7 +37643,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -37692,7 +37680,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>DDN</t>
         </is>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -37725,7 +37713,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>HAP</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -37758,7 +37746,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>VTK</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -37791,7 +37779,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -37824,7 +37812,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SSN</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -37857,7 +37845,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BVS</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -37890,7 +37878,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>POM</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -37923,7 +37911,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>HBC</t>
+          <t>CTP</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -37956,7 +37944,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>TL4</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -37989,7 +37977,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>DGW</t>
+          <t>HMC</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -38022,7 +38010,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>C47</t>
+          <t>C69</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -38055,7 +38043,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>PSP</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -38088,7 +38076,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>HHV</t>
+          <t>AAV</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -38121,7 +38109,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>HLD</t>
+          <t>DRH</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -38154,7 +38142,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>PGS</t>
+          <t>VCC</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -38187,7 +38175,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>HDC</t>
+          <t>GEX</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -38220,7 +38208,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BCE</t>
+          <t>SDT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -38253,7 +38241,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>PBP</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -38286,7 +38274,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -38319,7 +38307,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -38352,7 +38340,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -38385,7 +38373,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>PVV</t>
+          <t>CTD</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -38418,7 +38406,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BVH</t>
+          <t>SJD</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -38451,7 +38439,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>DBC</t>
+          <t>VE9</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -38484,7 +38472,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>KHG</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -38517,7 +38505,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>SD5</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -38550,7 +38538,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>NAB</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -38583,7 +38571,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>DDN</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -38616,7 +38604,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>HSG</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -38649,7 +38637,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -38682,7 +38670,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -38715,7 +38703,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -38748,7 +38736,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -38781,7 +38769,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>ABS</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -38814,7 +38802,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MTA</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -38847,7 +38835,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>HD6</t>
+          <t>DGW</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -38880,7 +38868,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>HUB</t>
         </is>
       </c>
       <c r="B483" t="inlineStr"/>
@@ -38913,7 +38901,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>LGL</t>
+          <t>HAH</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -38946,7 +38934,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>HLD</t>
         </is>
       </c>
       <c r="B485" t="inlineStr"/>
@@ -38979,7 +38967,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>DNM</t>
+          <t>DGT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -39012,7 +39000,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SCJ</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -39045,7 +39033,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -39078,7 +39066,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -39111,7 +39099,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MFS</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr"/>
@@ -39144,7 +39132,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>PDV</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -39177,7 +39165,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>BII</t>
         </is>
       </c>
       <c r="B492" t="inlineStr"/>
@@ -39210,7 +39198,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BAF</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="B493" t="inlineStr"/>
@@ -39243,7 +39231,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -39276,7 +39264,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>DVG</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B495" t="inlineStr"/>
@@ -39309,7 +39297,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>PXT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -39342,7 +39330,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -39375,7 +39363,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B498" t="inlineStr"/>
@@ -39408,7 +39396,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>KPF</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -39441,7 +39429,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="B500" t="inlineStr"/>
@@ -39474,7 +39462,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>PDB</t>
+          <t>MCH</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -39507,7 +39495,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BTP</t>
+          <t>DAH</t>
         </is>
       </c>
       <c r="B502" t="inlineStr"/>
@@ -39540,7 +39528,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -39573,7 +39561,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>THT</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -39606,7 +39594,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MVC</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -39639,7 +39627,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>HAX</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -39672,7 +39660,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SRT</t>
+          <t>TIS</t>
         </is>
       </c>
       <c r="B507" t="inlineStr"/>
@@ -39705,7 +39693,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>UDJ</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -39738,7 +39726,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORS</t>
+          <t>DBC</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -39771,7 +39759,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="B510" t="inlineStr"/>
@@ -39804,7 +39792,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>TCW</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -39837,7 +39825,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="B512" t="inlineStr"/>
@@ -39870,7 +39858,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr"/>
@@ -39899,7 +39887,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -39928,7 +39916,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>VNB</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B515" t="inlineStr"/>
@@ -39957,7 +39945,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>KKC</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -39986,7 +39974,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ST8</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="B517" t="inlineStr"/>
@@ -40015,7 +40003,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>BIG</t>
         </is>
       </c>
       <c r="B518" t="inlineStr"/>
@@ -40044,7 +40032,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ITS</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -40073,7 +40061,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>PXI</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -40102,7 +40090,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BIC</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -40131,7 +40119,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>HHP</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -40160,7 +40148,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -40189,7 +40177,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -40218,7 +40206,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>HTM</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B525" t="inlineStr"/>
@@ -40247,7 +40235,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>AGG</t>
+          <t>FTS</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -40276,7 +40264,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>DHA</t>
+          <t>KLB</t>
         </is>
       </c>
       <c r="B527" t="inlineStr"/>
@@ -40305,7 +40293,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>ST8</t>
         </is>
       </c>
       <c r="B528" t="inlineStr"/>
@@ -40334,7 +40322,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -40363,7 +40351,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>HHG</t>
+          <t>PVL</t>
         </is>
       </c>
       <c r="B530" t="inlineStr"/>
@@ -40388,7 +40376,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>KSF</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -40413,7 +40401,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>AFX</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -40438,7 +40426,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>KVC</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B533" t="inlineStr"/>
@@ -40463,7 +40451,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>VUA</t>
+          <t>DGC</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -40488,7 +40476,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="B535" t="inlineStr"/>
@@ -40513,7 +40501,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>VAB</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -40538,7 +40526,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>AAV</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -40563,7 +40551,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>GDT</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="B538" t="inlineStr"/>
@@ -40588,7 +40576,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>GSP</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -40613,7 +40601,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr"/>
@@ -40638,7 +40626,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>HU4</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -40663,7 +40651,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>GKM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr"/>
@@ -40688,7 +40676,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>DXP</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -40713,7 +40701,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>HAC</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -40738,7 +40726,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>NDT</t>
+          <t>CTR</t>
         </is>
       </c>
       <c r="B545" t="inlineStr"/>
@@ -40763,7 +40751,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -40788,7 +40776,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -40813,7 +40801,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>CTI</t>
+          <t>PGN</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
@@ -40838,7 +40826,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -40863,7 +40851,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>BII</t>
+          <t>GDT</t>
         </is>
       </c>
       <c r="B550" t="inlineStr"/>
@@ -40888,7 +40876,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -40913,7 +40901,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>DZM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr"/>
@@ -40938,7 +40926,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>PBC</t>
+          <t>DCL</t>
         </is>
       </c>
       <c r="B553" t="inlineStr"/>
@@ -40963,7 +40951,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>HCD</t>
+          <t>ODE</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -40988,7 +40976,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="B555" t="inlineStr"/>
@@ -41013,7 +41001,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -41038,7 +41026,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>VLG</t>
         </is>
       </c>
       <c r="B557" t="inlineStr"/>
@@ -41063,7 +41051,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -41088,7 +41076,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -41113,7 +41101,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="B560" t="inlineStr"/>
@@ -41138,7 +41126,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>PXT</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -41163,7 +41151,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="B562" t="inlineStr"/>
@@ -41188,7 +41176,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>DHC</t>
         </is>
       </c>
       <c r="B563" t="inlineStr"/>
@@ -41213,7 +41201,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -41238,7 +41226,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>PGC</t>
         </is>
       </c>
       <c r="B565" t="inlineStr"/>
@@ -41263,7 +41251,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SGT</t>
+          <t>HAI</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -41288,7 +41276,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>DBD</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="B567" t="inlineStr"/>
@@ -41313,7 +41301,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>DCL</t>
+          <t>BDT</t>
         </is>
       </c>
       <c r="B568" t="inlineStr"/>
@@ -41338,7 +41326,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>AAT</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -41363,7 +41351,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>DPG</t>
         </is>
       </c>
       <c r="B570" t="inlineStr"/>
@@ -41388,7 +41376,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>GVR</t>
+          <t>PBC</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -41413,7 +41401,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>HAI</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="B572" t="inlineStr"/>
@@ -41438,7 +41426,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>PHC</t>
+          <t>SRT</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -41463,7 +41451,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>SDD</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -41488,7 +41476,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>HBC</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -41513,7 +41501,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>PVM</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -41538,7 +41526,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>DXS</t>
+          <t>TDT</t>
         </is>
       </c>
       <c r="B577" t="inlineStr"/>
@@ -41563,7 +41551,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>CTD</t>
+          <t>DAG</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -41588,7 +41576,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>FIT</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -41613,7 +41601,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PGN</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -41638,7 +41626,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>BVB</t>
+          <t>TTZ</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -41663,7 +41651,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>VC2</t>
         </is>
       </c>
       <c r="B582" t="inlineStr"/>
@@ -41688,7 +41676,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="B583" t="inlineStr"/>
@@ -41713,7 +41701,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -41738,7 +41726,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="B585" t="inlineStr"/>
@@ -41763,7 +41751,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ABI</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -41788,7 +41776,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>DCS</t>
+          <t>HCM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -41813,7 +41801,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B588" t="inlineStr"/>
@@ -41838,7 +41826,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>VLG</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -41863,7 +41851,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>DGC</t>
+          <t>PVG</t>
         </is>
       </c>
       <c r="B590" t="inlineStr"/>
@@ -41888,7 +41876,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>C4G</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -41913,7 +41901,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B592" t="inlineStr"/>
@@ -41938,7 +41926,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>TEG</t>
         </is>
       </c>
       <c r="B593" t="inlineStr"/>
@@ -41963,7 +41951,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -41988,7 +41976,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>PMB</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -42013,7 +42001,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -42038,7 +42026,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SHN</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B597" t="inlineStr"/>
@@ -42063,7 +42051,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SJE</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -42113,7 +42101,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -42138,7 +42126,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -42163,7 +42151,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>TA9</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -42188,7 +42176,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>KDM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -42213,7 +42201,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -42238,7 +42226,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -42263,7 +42251,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -42288,7 +42276,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>TID</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -42313,7 +42301,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -42338,7 +42326,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>PVO</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -42363,7 +42351,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>KSF</t>
         </is>
       </c>
       <c r="B610" t="inlineStr"/>
@@ -42388,7 +42376,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>VFG</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -42413,7 +42401,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>BTP</t>
         </is>
       </c>
       <c r="B612" t="inlineStr"/>
@@ -42438,7 +42426,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>HAG</t>
+          <t>APC</t>
         </is>
       </c>
       <c r="B613" t="inlineStr"/>
@@ -42463,7 +42451,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>VTZ</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -42488,7 +42476,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="B615" t="inlineStr"/>
@@ -42513,7 +42501,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>VCC</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -42538,7 +42526,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>BFC</t>
+          <t>FIT</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -42563,7 +42551,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>DIG</t>
+          <t>FCM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -42588,7 +42576,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -42613,7 +42601,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SGB</t>
+          <t>C47</t>
         </is>
       </c>
       <c r="B620" t="inlineStr"/>
@@ -42638,7 +42626,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>NSH</t>
+          <t>KSD</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -42663,7 +42651,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SBV</t>
+          <t>LGL</t>
         </is>
       </c>
       <c r="B622" t="inlineStr"/>
@@ -42688,7 +42676,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>PXI</t>
         </is>
       </c>
       <c r="B623" t="inlineStr"/>
@@ -42713,7 +42701,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>DAH</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -42738,7 +42726,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -42763,7 +42751,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>QBS</t>
+          <t>HRT</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -42788,7 +42776,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>FID</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="B627" t="inlineStr"/>
@@ -42813,7 +42801,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>HVG</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="B628" t="inlineStr"/>
@@ -42838,7 +42826,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>HAR</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -42863,7 +42851,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B630" t="inlineStr"/>
@@ -42888,7 +42876,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -42913,7 +42901,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>TCW</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -42938,7 +42926,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>PBP</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -42963,7 +42951,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>NED</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -42988,7 +42976,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>BFC</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>
@@ -43062,7 +43050,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -43082,7 +43070,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
@@ -43142,7 +43130,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
@@ -43434,35 +43422,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SJE</t>
+          <t>VTK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>PIV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>VFG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>SJE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PIV</t>
+          <t>HMR</t>
         </is>
       </c>
     </row>
